--- a/biology/Biochimie/Trimyristine/Trimyristine.xlsx
+++ b/biology/Biochimie/Trimyristine/Trimyristine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La trimyristine est un triglycéride principalement retrouvé dans les noix de muscade et constitué d'un résidu de glycérol estérifié par trois résidus d'acide myristique, un acide gras saturé en C14. Il s'agit d'un solide jaune gris insoluble dans l'eau mais soluble dans l'éthanol CH3CH2OH, le benzène C6H6, le chloroforme CHCl3, le dichlorométhane CH2Cl2 et l'éther diéthylique CH3CH2OCH2CH3. On trouve de la trimyristine dans la plupart des huiles végétales.
